--- a/imageCreationExcel/back/0901-1/0901-1_13.xlsx
+++ b/imageCreationExcel/back/0901-1/0901-1_13.xlsx
@@ -486,16 +486,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.147471601550345</v>
+        <v>0.3166439009992164</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,22 +503,24 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.8592753010356993</v>
+        <v>0.7913660260658087</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1.689064987984977</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_S_contrast1.1_gamma0.86_brightness1.7.jpg</t>
+          <t>1_T_sharpness0.32_gamma0.79.jpg</t>
         </is>
       </c>
     </row>
@@ -528,16 +530,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.9734942193602464</v>
+        <v>0.786746175911768</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,22 +547,24 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.066712973388113</v>
+        <v>0.8802922084112327</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8.847129150288033</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_E_contrast0.97_gamma1.1_equalization8.8.jpg</t>
+          <t>2_I_sharpness0.79_gamma0.88.jpg</t>
         </is>
       </c>
     </row>
@@ -570,16 +574,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.785144213803767</v>
+        <v>0.3740172825077823</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -587,7 +591,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.190811725054238</v>
+        <v>0.9059353212356704</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -604,7 +608,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_J_gamma0.79_contrast1.2.jpg</t>
+          <t>3_B_sharpness0.37_contrast0.91.jpg</t>
         </is>
       </c>
     </row>
@@ -614,41 +618,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9259930618814094</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>0.7835860873594878</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F5" t="n">
-        <v>1.013102104458483</v>
+        <v>0.3870390466541116</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1.130124070261887</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_2_sharpness0.78_contrast1.0.jpg</t>
+          <t>4_3_gamma0.93_sharpness0.39_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -658,39 +660,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.9018357241376938</v>
+        <v>0.97623556858815</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.5056636426137633</v>
+        <v>9.079956437393008</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>29.87744092291826</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_2_sharpness0.9_gamma0.51_equalization30.0.jpg</t>
+          <t>5_1_contrast0.98_brightness9.1.jpg</t>
         </is>
       </c>
     </row>
@@ -700,24 +704,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3007349615752826</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>3.333973106338068</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F7" t="n">
-        <v>0.2774135869712995</v>
+        <v>21.37742039704531</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -725,14 +729,14 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.9263469384585138</v>
+        <v>0.8777158334342319</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_7_brightness3.3_sharpness0.28_contrast0.93.jpg</t>
+          <t>6_P_sharpness0.3_brightness21.0_contrast0.88.jpg</t>
         </is>
       </c>
     </row>
@@ -742,41 +746,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.080841641631001</v>
+        <v>0.6138702941937124</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>30.4965574594609</v>
+        <v>1.157162189036383</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7.464024737498697</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_7_contrast1.1_equalization30.0.jpg</t>
+          <t>7_C_gamma0.61_contrast1.2_brightness7.5.jpg</t>
         </is>
       </c>
     </row>
@@ -786,24 +788,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8358147265888249</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0.3777148535120696</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F9" t="n">
-        <v>0.9241661603402613</v>
+        <v>0.4361484398227258</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -811,14 +813,14 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>22.51946225623753</v>
+        <v>26.00873866380396</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_Q_sharpness0.38_contrast0.92_equalization23.0.jpg</t>
+          <t>8_9_contrast0.84_sharpness0.44_equalization26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -828,39 +830,41 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.6215908271076452</v>
+        <v>0.8716858685044362</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.8134470784692697</v>
+        <v>18.78102760057016</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6.306867501143241</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_0_sharpness0.62_gamma0.81_equalization6.3.jpg</t>
+          <t>9_3_gamma0.87_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -870,16 +874,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>22.50972396305585</v>
+        <v>0.7952129125850516</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -887,24 +891,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9632549764294098</v>
+        <v>0.7331752700184258</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>29.18560880734294</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_7_brightness23.0_gamma0.96.jpg</t>
+          <t>10_J_sharpness0.8_gamma0.73_equalization29.0.jpg</t>
         </is>
       </c>
     </row>
@@ -914,7 +916,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -923,7 +925,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.576116466589746</v>
+        <v>0.8521328634793961</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -931,7 +933,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9363657281740606</v>
+        <v>0.8833192566397036</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -939,14 +941,14 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>17.20538761098125</v>
+        <v>18.67981522444917</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_C_gamma0.58_contrast0.94_equalization17.0.jpg</t>
+          <t>11_0_gamma0.85_contrast0.88_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -956,39 +958,41 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.7202732480441588</v>
+        <v>9.748398613072748</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9290990227849998</v>
+        <v>0.7071332455650646</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>20.38667261492277</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_J_gamma0.72_sharpness0.93_equalization20.0.jpg</t>
+          <t>12_P_brightness9.7_gamma0.71.jpg</t>
         </is>
       </c>
     </row>
@@ -998,7 +1002,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1007,15 +1011,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3.215711574969446</v>
+        <v>16.90410954711647</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.8983745534968556</v>
+        <v>0.5598680907590284</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1032,7 +1036,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_Q_brightness3.2_contrast0.9.jpg</t>
+          <t>13_C_brightness17.0_sharpness0.56.jpg</t>
         </is>
       </c>
     </row>
@@ -1042,41 +1046,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.02906032513472134</v>
+        <v>10.18087199185823</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>28.07813631884803</v>
+        <v>1.024775481159592</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9536718156483641</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_B_sharpness0.029_equalization28.0.jpg</t>
+          <t>14_P_brightness10.0_contrast1.0_gamma0.95.jpg</t>
         </is>
       </c>
     </row>
@@ -1086,24 +1088,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8218265161215575</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>0.05186845536558571</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F16" t="n">
-        <v>0.2515922292598551</v>
+        <v>6.454464167279311</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1111,14 +1113,14 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.078741651545562</v>
+        <v>1.115542841446299</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_7_brightness0.052_sharpness0.25_contrast1.1.jpg</t>
+          <t>15_E_sharpness0.82_brightness6.5_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1128,39 +1130,41 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.3598864772744234</v>
+        <v>0.7306968461034518</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>27.07335415585056</v>
+        <v>0.9281316481485954</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1.08094130355647</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_0_sharpness0.36_brightness27.0_contrast1.1.jpg</t>
+          <t>16_J_gamma0.73_contrast0.93.jpg</t>
         </is>
       </c>
     </row>
@@ -1170,39 +1174,41 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.010196430430629</v>
+        <v>0.9568265294699562</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.1693902156194079</v>
+        <v>21.49978609078985</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>17.58096721139422</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_I_gamma1.0_sharpness0.17_brightness18.0.jpg</t>
+          <t>17_C_contrast0.96_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1212,39 +1218,41 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.8338245496929961</v>
+        <v>0.2625200854658073</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6.826982095655251</v>
+        <v>1.004658592297538</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>0.7225955829343169</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_0_contrast0.83_brightness6.8_gamma0.72.jpg</t>
+          <t>18_2_sharpness0.26_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1262,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1263,7 +1271,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.6572962370045836</v>
+        <v>0.8764617876584821</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1271,7 +1279,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.5401008610303226</v>
+        <v>0.141777091676796</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1279,14 +1287,14 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>21.6893051920699</v>
+        <v>26.66503894440622</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_2_gamma0.66_sharpness0.54_equalization22.0.jpg</t>
+          <t>19_I_gamma0.88_sharpness0.14_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1296,39 +1304,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6518478296494057</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.129044884265371</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>0.8256948752783874</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>27.88749400548911</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="H21" t="n">
-        <v>0.9561241207168074</v>
+        <v>0.9273425644325477</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_I_sharpness0.83_brightness28.0_gamma0.96.jpg</t>
+          <t>20_3_gamma0.65_contrast1.1_sharpness0.93.jpg</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1346,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1347,15 +1355,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.9138642585331059</v>
+        <v>1.072612512693982</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.598346562503422</v>
+        <v>1.039622466677049</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1368,11 +1376,11 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_0_gamma0.91_brightness2.6.jpg</t>
+          <t>21_I_gamma1.1_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1382,39 +1390,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.09461076727016</v>
+        <v>3.04577670337594</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.577287981307877</v>
+        <v>1.119351034778946</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.1960353886354643</v>
+        <v>0.6450199093417961</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_S_contrast1.1_brightness1.6_sharpness0.2.jpg</t>
+          <t>22_7_brightness3.0_contrast1.1_gamma0.65.jpg</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1432,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1433,7 +1441,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.018131840289427</v>
+        <v>1.020097933768105</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1441,7 +1449,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>16.01390901077946</v>
+        <v>23.81738133926762</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1454,11 +1462,11 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_8_contrast1.0_equalization16.0.jpg</t>
+          <t>23_B_contrast1.0_equalization24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1468,24 +1476,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8463424432404965</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>6.317399640970923</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F25" t="n">
-        <v>1.073377966039249</v>
+        <v>8.47772976840742</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1498,11 +1506,11 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_C_brightness6.3_gamma1.1.jpg</t>
+          <t>24_B_contrast0.85_brightness8.5.jpg</t>
         </is>
       </c>
     </row>
@@ -1512,39 +1520,41 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9911954980179374</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>0.04736938125696966</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F26" t="n">
-        <v>1.039191400948972</v>
+        <v>0.9883351972350619</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>1.062890023876641</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_2_sharpness0.047_contrast1.0_gamma1.1.jpg</t>
+          <t>25_Q_contrast0.99_sharpness0.99.jpg</t>
         </is>
       </c>
     </row>
@@ -1554,41 +1564,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5705716070359204</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>0.6300803904299404</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F27" t="n">
-        <v>0.9867745165631094</v>
+        <v>0.1216048762280297</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>24.53133814986906</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_7_sharpness0.63_contrast0.99.jpg</t>
+          <t>26_1_gamma0.57_sharpness0.12_equalization25.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1606,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1607,15 +1615,15 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3.270917053900174</v>
+        <v>26.13411704287377</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.9428728210266625</v>
+        <v>0.2121240674631911</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1632,7 +1640,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_9_brightness3.3_gamma0.94.jpg</t>
+          <t>27_Q_brightness26.0_sharpness0.21.jpg</t>
         </is>
       </c>
     </row>
@@ -1642,7 +1650,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1651,15 +1659,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1.029070257038708</v>
+        <v>1.029738081091369</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>29.79936075383126</v>
+        <v>18.10240728532961</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1676,7 +1684,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_S_contrast1.0_equalization30.0.jpg</t>
+          <t>28_2_contrast1.0_brightness18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1694,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1695,15 +1703,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.6645294513633463</v>
+        <v>0.9051940538718495</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.098958864460344</v>
+        <v>0.9226485345216114</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1711,14 +1719,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>19.82223901796859</v>
+        <v>5.484349551109915</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_1_gamma0.66_contrast1.1_equalization20.0.jpg</t>
+          <t>29_E_gamma0.91_sharpness0.92_equalization5.5.jpg</t>
         </is>
       </c>
     </row>
@@ -1733,34 +1741,36 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.1013498996409234</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>8.240181903859693</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F31" t="n">
-        <v>0.8887028272486723</v>
+        <v>6.318541427248432</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>0.8867761378348463</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_2_brightness8.2_sharpness0.89_contrast0.89.jpg</t>
+          <t>30_2_sharpness0.1_brightness6.3.jpg</t>
         </is>
       </c>
     </row>
@@ -1770,41 +1780,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1.010444423232088</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.8685485864445344</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>2.160577327723856</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0.9732046594508398</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H32" t="n">
+        <v>21.11532818110684</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_P_brightness2.2_contrast0.97.jpg</t>
+          <t>31_3_contrast1.0_gamma0.87_brightness21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1814,24 +1822,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.05746536896153709</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>15.66665164703065</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F33" t="n">
-        <v>0.8920551220233865</v>
+        <v>0.5078893053692857</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1839,14 +1847,14 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.8863076119313334</v>
+        <v>0.9359032592390286</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_S_brightness16.0_gamma0.89_contrast0.89.jpg</t>
+          <t>32_7_sharpness0.057_brightness0.51_contrast0.94.jpg</t>
         </is>
       </c>
     </row>
@@ -1861,34 +1869,34 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.7166450644161415</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.5415171979577128</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>3.506712391736408</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>1.133290003464357</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="H34" t="n">
-        <v>0.583468028113783</v>
+        <v>26.61230523864225</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_3_brightness3.5_contrast1.1_gamma0.58.jpg</t>
+          <t>33_3_sharpness0.72_gamma0.54_brightness27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1898,24 +1906,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.5762224785144863</v>
+        <v>1.059512051686185</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9158635682095903</v>
+        <v>0.9006695311483079</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1932,7 +1940,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_S_gamma0.58_contrast0.92.jpg</t>
+          <t>34_2_contrast1.1_gamma0.9.jpg</t>
         </is>
       </c>
     </row>
@@ -1942,41 +1950,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1.109441026252975</v>
+        <v>4.909170479179003</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>21.30255019045049</v>
+        <v>1.14562174731151</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>0.999384295593304</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_P_contrast1.1_brightness21.0.jpg</t>
+          <t>35_1_brightness4.9_contrast1.1_sharpness1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1986,24 +1992,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.7153730253138825</v>
+        <v>1.0235933663318</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.9393776115111753</v>
+        <v>0.9405673357622391</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2020,7 +2026,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_0_gamma0.72_sharpness0.94.jpg</t>
+          <t>36_S_contrast1.0_brightness0.94.jpg</t>
         </is>
       </c>
     </row>
@@ -2030,16 +2036,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.9131025777924991</v>
+        <v>0.3994949515765136</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2047,22 +2053,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.5631519798350338</v>
+        <v>0.7720103226430277</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>30.73216073271086</v>
+        <v>0.9048562019805981</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_E_contrast0.91_gamma0.56_equalization31.0.jpg</t>
+          <t>37_C_sharpness0.4_gamma0.77_contrast0.9.jpg</t>
         </is>
       </c>
     </row>
@@ -2072,39 +2078,41 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.8453346978358229</v>
+        <v>1.144953015644059</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.186407643686031</v>
+        <v>15.90744193447787</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>1.067928635387523</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_B_gamma0.85_contrast1.2_brightness1.1.jpg</t>
+          <t>38_3_contrast1.1_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2114,16 +2122,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.06288259304818478</v>
+        <v>0.9782932772546881</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2131,7 +2139,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>31.59952691090539</v>
+        <v>28.03460261056408</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2144,11 +2152,11 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_C_sharpness0.063_equalization32.0.jpg</t>
+          <t>39_3_contrast0.98_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2158,24 +2166,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.7783163296566433</v>
+        <v>0.5615958127564883</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>13.68068406868172</v>
+        <v>1.155658009702353</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2192,7 +2200,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_1_gamma0.78_equalization14.0.jpg</t>
+          <t>40_8_sharpness0.56_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -2202,16 +2210,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.7789454716145408</v>
+        <v>4.373296399809901</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2219,22 +2227,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.054719853239139</v>
+        <v>0.9409857322249905</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.5132934929051004</v>
+        <v>0.8533878404657673</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_E_gamma0.78_contrast1.1_sharpness0.51.jpg</t>
+          <t>41_J_brightness4.4_contrast0.94_gamma0.85.jpg</t>
         </is>
       </c>
     </row>
@@ -2244,24 +2252,24 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.07406867436184594</v>
+        <v>1.077682859651426</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>14.66394359102206</v>
+        <v>1.099831970696594</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2274,11 +2282,11 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_T_sharpness0.074_equalization15.0.jpg</t>
+          <t>42_2_gamma1.1_brightness1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2288,39 +2296,41 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.094452294928852</v>
+        <v>0.8139208777470002</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.532772284848318</v>
+        <v>0.864454600195822</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>28.98225115179063</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_C_contrast1.1_sharpness0.53_equalization29.0.jpg</t>
+          <t>43_2_gamma0.81_contrast0.86.jpg</t>
         </is>
       </c>
     </row>
@@ -2330,16 +2340,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.9417560134633576</v>
+        <v>10.3920817053432</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2347,22 +2357,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.9965405127856672</v>
+        <v>0.520820912591049</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>14.06390280200499</v>
+        <v>0.8761659417683048</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_1_gamma0.94_sharpness1.0_brightness14.0.jpg</t>
+          <t>44_E_brightness10.0_sharpness0.52_gamma0.88.jpg</t>
         </is>
       </c>
     </row>
@@ -2372,39 +2382,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.6885843912768065</v>
+        <v>0.7104544933977547</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.8896304452837003</v>
+        <v>29.76587610620262</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>7.72212672134219</v>
+        <v>0.9030023857815529</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_P_sharpness0.69_gamma0.89_equalization7.7.jpg</t>
+          <t>45_C_gamma0.71_brightness30.0_contrast0.9.jpg</t>
         </is>
       </c>
     </row>
@@ -2414,24 +2424,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1.076743328378023</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>20.13108586497828</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F47" t="n">
-        <v>0.7590355822710226</v>
+        <v>29.79040509158437</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2448,7 +2458,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_C_brightness20.0_gamma0.76.jpg</t>
+          <t>46_I_gamma1.1_brightness30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2458,7 +2468,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2467,30 +2477,32 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.9479951701714449</v>
+        <v>1.192178790634681</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.003204600876226</v>
+        <v>0.828546716162944</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>0.2964833212089178</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_S_contrast0.95_gamma1.0_sharpness0.3.jpg</t>
+          <t>47_C_contrast1.2_sharpness0.83.jpg</t>
         </is>
       </c>
     </row>
@@ -2500,39 +2512,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.935598892353098</v>
+        <v>0.5399486135059609</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.8088026815521959</v>
+        <v>1.037059761566008</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>4.364287458831638</v>
+        <v>0.7685308588872989</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_Q_contrast0.94_gamma0.81_equalization4.4.jpg</t>
+          <t>48_9_gamma0.54_contrast1.0_sharpness0.77.jpg</t>
         </is>
       </c>
     </row>
